--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from be-rolemed-cs" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Role Code System" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:18:33+00:00</t>
+    <t>2022-01-27T13:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/example/CodeSystem/be-rolemed-cs</t>
+    <t>http://hl7.org/fhir/us/example/CodeSystem/be-rolemed-cs</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:02:02+00:00</t>
+    <t>2022-01-27T13:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:14:27+00:00</t>
+    <t>2022-01-27T13:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:16:24+00:00</t>
+    <t>2022-01-27T14:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:15:49+00:00</t>
+    <t>2022-01-27T14:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:24:59+00:00</t>
+    <t>2022-01-27T14:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:26:36+00:00</t>
+    <t>2022-01-27T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>beRoleMedicationVS</t>
+    <t>BeRoleMedicationVS</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:37:11+00:00</t>
+    <t>2022-01-27T15:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-role-medication-vs.xlsx
+++ b/ValueSet-be-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
